--- a/Yearly_Forecast_Revenue.xlsx
+++ b/Yearly_Forecast_Revenue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maico\OneDrive - Universidad Nacional de Colombia\Oliver Pardo\VAR_VEC-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BEB925F-552A-44BE-BA38-409AFC532AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424274BD-41AF-44B3-AD25-A9BCC47C8A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="805" firstSheet="3" activeTab="9" xr2:uid="{486D11B9-5307-4873-8238-7EE5ADB2402D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="805" firstSheet="2" activeTab="9" xr2:uid="{486D11B9-5307-4873-8238-7EE5ADB2402D}"/>
   </bookViews>
   <sheets>
     <sheet name="Total revenues and grants" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Licenses" sheetId="13" r:id="rId7"/>
     <sheet name="Royalties" sheetId="14" r:id="rId8"/>
     <sheet name="Government ministries" sheetId="16" r:id="rId9"/>
-    <sheet name="Government ministries (2)" sheetId="18" r:id="rId10"/>
+    <sheet name="Repayment of old loans " sheetId="18" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1460,7 +1460,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Government ministries (2)'!$B$1</c:f>
+              <c:f>'Repayment of old loans '!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1489,7 +1489,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Government ministries (2)'!$A$2:$A$27</c:f>
+              <c:f>'Repayment of old loans '!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1576,7 +1576,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Government ministries (2)'!$B$2:$B$27</c:f>
+              <c:f>'Repayment of old loans '!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1673,7 +1673,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Government ministries (2)'!$D$1</c:f>
+              <c:f>'Repayment of old loans '!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1706,7 +1706,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Government ministries (2)'!$A$2:$A$27</c:f>
+              <c:f>'Repayment of old loans '!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1793,7 +1793,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Government ministries (2)'!$D$2:$D$27</c:f>
+              <c:f>'Repayment of old loans '!$D$2:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1890,7 +1890,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Government ministries (2)'!$E$1</c:f>
+              <c:f>'Repayment of old loans '!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1923,7 +1923,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Government ministries (2)'!$A$2:$A$27</c:f>
+              <c:f>'Repayment of old loans '!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2010,7 +2010,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Government ministries (2)'!$E$2:$E$27</c:f>
+              <c:f>'Repayment of old loans '!$E$2:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2124,7 +2124,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Government ministries (2)'!$A$1</c15:sqref>
+                          <c15:sqref>'Repayment of old loans '!$A$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2159,7 +2159,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Government ministries (2)'!$A$2:$A$27</c15:sqref>
+                          <c15:sqref>'Repayment of old loans '!$A$2:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2252,7 +2252,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Government ministries (2)'!$A$2:$A$26</c15:sqref>
+                          <c15:sqref>'Repayment of old loans '!$A$2:$A$26</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -19963,7 +19963,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
